--- a/DataInput/Tables/DataSource/InputTables.xlsx
+++ b/DataInput/Tables/DataSource/InputTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="525" windowWidth="23715" windowHeight="11520"/>
+    <workbookView xWindow="765" yWindow="525" windowWidth="23715" windowHeight="11520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Maps</t>
   </si>
@@ -252,9 +252,6 @@
     <t>ZornDaily</t>
   </si>
   <si>
-    <t>See R script.</t>
-  </si>
-  <si>
     <t>SolarRadiation</t>
   </si>
   <si>
@@ -268,6 +265,15 @@
   </si>
   <si>
     <t>J/cm2/day</t>
+  </si>
+  <si>
+    <t>See R script; 0.0_BEACH_HydroData.pdf</t>
+  </si>
+  <si>
+    <t>"AirTemp", 2016</t>
+  </si>
+  <si>
+    <t>temp (C)</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,8 +645,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -764,6 +776,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -810,7 +831,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,6 +864,8 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1188,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1223,7 @@
     <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="36" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1547,7 +1570,7 @@
         <v>62</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,7 +1589,7 @@
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>64</v>
@@ -1576,12 +1599,12 @@
         <v>58</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>64</v>
@@ -1591,7 +1614,7 @@
         <v>58</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1610,13 +1633,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>58</v>
@@ -56511,8 +56534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59472,14 +59495,2963 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>67</v>
+      </c>
+      <c r="B71">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>72</v>
+      </c>
+      <c r="B76">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>73</v>
+      </c>
+      <c r="B77">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>78</v>
+      </c>
+      <c r="B82">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>79</v>
+      </c>
+      <c r="B83">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>82</v>
+      </c>
+      <c r="B86">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>83</v>
+      </c>
+      <c r="B87">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>84</v>
+      </c>
+      <c r="B88">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>86</v>
+      </c>
+      <c r="B90">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>89</v>
+      </c>
+      <c r="B93">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>90</v>
+      </c>
+      <c r="B94">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <v>91</v>
+      </c>
+      <c r="B95">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <v>92</v>
+      </c>
+      <c r="B96">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
+        <v>96</v>
+      </c>
+      <c r="B100">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>97</v>
+      </c>
+      <c r="B101">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
+        <v>98</v>
+      </c>
+      <c r="B102">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="14">
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
+        <v>100</v>
+      </c>
+      <c r="B104">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="14">
+        <v>101</v>
+      </c>
+      <c r="B105">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
+        <v>102</v>
+      </c>
+      <c r="B106">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
+        <v>103</v>
+      </c>
+      <c r="B107">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="14">
+        <v>104</v>
+      </c>
+      <c r="B108">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
+        <v>105</v>
+      </c>
+      <c r="B109">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
+        <v>106</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
+        <v>107</v>
+      </c>
+      <c r="B111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>108</v>
+      </c>
+      <c r="B112">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>109</v>
+      </c>
+      <c r="B113">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
+        <v>110</v>
+      </c>
+      <c r="B114">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
+        <v>111</v>
+      </c>
+      <c r="B115">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
+        <v>112</v>
+      </c>
+      <c r="B116">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>113</v>
+      </c>
+      <c r="B117">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>114</v>
+      </c>
+      <c r="B118">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
+        <v>115</v>
+      </c>
+      <c r="B119">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
+        <v>116</v>
+      </c>
+      <c r="B120">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>117</v>
+      </c>
+      <c r="B121">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
+        <v>118</v>
+      </c>
+      <c r="B122">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
+        <v>119</v>
+      </c>
+      <c r="B123">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>120</v>
+      </c>
+      <c r="B124">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
+        <v>121</v>
+      </c>
+      <c r="B125">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
+        <v>123</v>
+      </c>
+      <c r="B127">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
+        <v>124</v>
+      </c>
+      <c r="B128">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="14">
+        <v>125</v>
+      </c>
+      <c r="B129">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
+        <v>126</v>
+      </c>
+      <c r="B130">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>127</v>
+      </c>
+      <c r="B131">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="14">
+        <v>128</v>
+      </c>
+      <c r="B132">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="14">
+        <v>129</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="14">
+        <v>130</v>
+      </c>
+      <c r="B134">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
+        <v>131</v>
+      </c>
+      <c r="B135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
+        <v>132</v>
+      </c>
+      <c r="B136">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="14">
+        <v>133</v>
+      </c>
+      <c r="B137">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="14">
+        <v>134</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="14">
+        <v>135</v>
+      </c>
+      <c r="B139">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="14">
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="14">
+        <v>137</v>
+      </c>
+      <c r="B141">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="14">
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="14">
+        <v>139</v>
+      </c>
+      <c r="B143">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="14">
+        <v>140</v>
+      </c>
+      <c r="B144">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="14">
+        <v>141</v>
+      </c>
+      <c r="B145">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="14">
+        <v>142</v>
+      </c>
+      <c r="B146">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="14">
+        <v>143</v>
+      </c>
+      <c r="B147">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="14">
+        <v>144</v>
+      </c>
+      <c r="B148">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="14">
+        <v>145</v>
+      </c>
+      <c r="B149">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="14">
+        <v>146</v>
+      </c>
+      <c r="B150">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="14">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="14">
+        <v>148</v>
+      </c>
+      <c r="B152">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="14">
+        <v>149</v>
+      </c>
+      <c r="B153">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="14">
+        <v>150</v>
+      </c>
+      <c r="B154">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="14">
+        <v>151</v>
+      </c>
+      <c r="B155">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="14">
+        <v>152</v>
+      </c>
+      <c r="B156">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
+        <v>153</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="14">
+        <v>154</v>
+      </c>
+      <c r="B158">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="14">
+        <v>155</v>
+      </c>
+      <c r="B159">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
+        <v>156</v>
+      </c>
+      <c r="B160">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="14">
+        <v>157</v>
+      </c>
+      <c r="B161">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="14">
+        <v>158</v>
+      </c>
+      <c r="B162">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="14">
+        <v>159</v>
+      </c>
+      <c r="B163">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="14">
+        <v>160</v>
+      </c>
+      <c r="B164">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="14">
+        <v>161</v>
+      </c>
+      <c r="B165">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="14">
+        <v>162</v>
+      </c>
+      <c r="B166">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="14">
+        <v>163</v>
+      </c>
+      <c r="B167">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="14">
+        <v>164</v>
+      </c>
+      <c r="B168">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="14">
+        <v>165</v>
+      </c>
+      <c r="B169">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="14">
+        <v>166</v>
+      </c>
+      <c r="B170">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="14">
+        <v>167</v>
+      </c>
+      <c r="B171">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="14">
+        <v>168</v>
+      </c>
+      <c r="B172">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="14">
+        <v>169</v>
+      </c>
+      <c r="B173">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="14">
+        <v>170</v>
+      </c>
+      <c r="B174">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="14">
+        <v>171</v>
+      </c>
+      <c r="B175">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="14">
+        <v>172</v>
+      </c>
+      <c r="B176">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="14">
+        <v>173</v>
+      </c>
+      <c r="B177">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="14">
+        <v>174</v>
+      </c>
+      <c r="B178">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="14">
+        <v>175</v>
+      </c>
+      <c r="B179">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="14">
+        <v>176</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="14">
+        <v>177</v>
+      </c>
+      <c r="B181">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="14">
+        <v>178</v>
+      </c>
+      <c r="B182">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="14">
+        <v>179</v>
+      </c>
+      <c r="B183">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="14">
+        <v>180</v>
+      </c>
+      <c r="B184">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="14">
+        <v>181</v>
+      </c>
+      <c r="B185">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="14">
+        <v>182</v>
+      </c>
+      <c r="B186">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="14">
+        <v>183</v>
+      </c>
+      <c r="B187">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="14">
+        <v>184</v>
+      </c>
+      <c r="B188">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="14">
+        <v>185</v>
+      </c>
+      <c r="B189">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="14">
+        <v>186</v>
+      </c>
+      <c r="B190">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="14">
+        <v>187</v>
+      </c>
+      <c r="B191">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="14">
+        <v>188</v>
+      </c>
+      <c r="B192">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="14">
+        <v>189</v>
+      </c>
+      <c r="B193">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="14">
+        <v>190</v>
+      </c>
+      <c r="B194">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="14">
+        <v>191</v>
+      </c>
+      <c r="B195">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="14">
+        <v>192</v>
+      </c>
+      <c r="B196">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="14">
+        <v>193</v>
+      </c>
+      <c r="B197">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="14">
+        <v>194</v>
+      </c>
+      <c r="B198">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="14">
+        <v>195</v>
+      </c>
+      <c r="B199">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="14">
+        <v>196</v>
+      </c>
+      <c r="B200">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="14">
+        <v>197</v>
+      </c>
+      <c r="B201">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="14">
+        <v>198</v>
+      </c>
+      <c r="B202">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="14">
+        <v>199</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="14">
+        <v>200</v>
+      </c>
+      <c r="B204">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="14">
+        <v>201</v>
+      </c>
+      <c r="B205">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="14">
+        <v>202</v>
+      </c>
+      <c r="B206">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="14">
+        <v>203</v>
+      </c>
+      <c r="B207">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="14">
+        <v>204</v>
+      </c>
+      <c r="B208">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="14">
+        <v>205</v>
+      </c>
+      <c r="B209">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="14">
+        <v>206</v>
+      </c>
+      <c r="B210">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="14">
+        <v>207</v>
+      </c>
+      <c r="B211">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="14">
+        <v>208</v>
+      </c>
+      <c r="B212">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="14">
+        <v>209</v>
+      </c>
+      <c r="B213">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="14">
+        <v>210</v>
+      </c>
+      <c r="B214">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="14">
+        <v>211</v>
+      </c>
+      <c r="B215">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="14">
+        <v>212</v>
+      </c>
+      <c r="B216">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="14">
+        <v>213</v>
+      </c>
+      <c r="B217">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="14">
+        <v>214</v>
+      </c>
+      <c r="B218">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="14">
+        <v>215</v>
+      </c>
+      <c r="B219">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="14">
+        <v>216</v>
+      </c>
+      <c r="B220">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="14">
+        <v>217</v>
+      </c>
+      <c r="B221">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="14">
+        <v>218</v>
+      </c>
+      <c r="B222">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="14">
+        <v>219</v>
+      </c>
+      <c r="B223">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="14">
+        <v>220</v>
+      </c>
+      <c r="B224">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="14">
+        <v>221</v>
+      </c>
+      <c r="B225">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="14">
+        <v>222</v>
+      </c>
+      <c r="B226">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="14">
+        <v>223</v>
+      </c>
+      <c r="B227">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="14">
+        <v>224</v>
+      </c>
+      <c r="B228">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="14">
+        <v>225</v>
+      </c>
+      <c r="B229">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="14">
+        <v>226</v>
+      </c>
+      <c r="B230">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="14">
+        <v>227</v>
+      </c>
+      <c r="B231">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="14">
+        <v>228</v>
+      </c>
+      <c r="B232">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="14">
+        <v>229</v>
+      </c>
+      <c r="B233">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="14">
+        <v>230</v>
+      </c>
+      <c r="B234">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="14">
+        <v>231</v>
+      </c>
+      <c r="B235">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="14">
+        <v>232</v>
+      </c>
+      <c r="B236">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="14">
+        <v>233</v>
+      </c>
+      <c r="B237">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="14">
+        <v>234</v>
+      </c>
+      <c r="B238">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="14">
+        <v>235</v>
+      </c>
+      <c r="B239">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="14">
+        <v>236</v>
+      </c>
+      <c r="B240">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="14">
+        <v>237</v>
+      </c>
+      <c r="B241">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="14">
+        <v>238</v>
+      </c>
+      <c r="B242">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="14">
+        <v>239</v>
+      </c>
+      <c r="B243">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="14">
+        <v>240</v>
+      </c>
+      <c r="B244">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="14">
+        <v>241</v>
+      </c>
+      <c r="B245">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="14">
+        <v>242</v>
+      </c>
+      <c r="B246">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="14">
+        <v>243</v>
+      </c>
+      <c r="B247">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="14">
+        <v>244</v>
+      </c>
+      <c r="B248">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="14">
+        <v>245</v>
+      </c>
+      <c r="B249">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="14">
+        <v>246</v>
+      </c>
+      <c r="B250">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="14">
+        <v>247</v>
+      </c>
+      <c r="B251">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="14">
+        <v>248</v>
+      </c>
+      <c r="B252">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="14">
+        <v>249</v>
+      </c>
+      <c r="B253">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="14">
+        <v>250</v>
+      </c>
+      <c r="B254">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="14">
+        <v>251</v>
+      </c>
+      <c r="B255">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="14">
+        <v>252</v>
+      </c>
+      <c r="B256">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="14">
+        <v>253</v>
+      </c>
+      <c r="B257">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="14">
+        <v>254</v>
+      </c>
+      <c r="B258">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="14">
+        <v>255</v>
+      </c>
+      <c r="B259">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="14">
+        <v>256</v>
+      </c>
+      <c r="B260">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="14">
+        <v>257</v>
+      </c>
+      <c r="B261">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="14">
+        <v>258</v>
+      </c>
+      <c r="B262">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="14">
+        <v>259</v>
+      </c>
+      <c r="B263">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="14">
+        <v>260</v>
+      </c>
+      <c r="B264">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="14">
+        <v>261</v>
+      </c>
+      <c r="B265">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="14">
+        <v>262</v>
+      </c>
+      <c r="B266">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="14">
+        <v>263</v>
+      </c>
+      <c r="B267">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="14">
+        <v>264</v>
+      </c>
+      <c r="B268">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="14">
+        <v>265</v>
+      </c>
+      <c r="B269">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="14">
+        <v>266</v>
+      </c>
+      <c r="B270">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="14">
+        <v>267</v>
+      </c>
+      <c r="B271">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="14">
+        <v>268</v>
+      </c>
+      <c r="B272">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="14">
+        <v>269</v>
+      </c>
+      <c r="B273">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="14">
+        <v>270</v>
+      </c>
+      <c r="B274">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="14">
+        <v>271</v>
+      </c>
+      <c r="B275">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="14">
+        <v>272</v>
+      </c>
+      <c r="B276">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="14">
+        <v>273</v>
+      </c>
+      <c r="B277">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="14">
+        <v>274</v>
+      </c>
+      <c r="B278">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="14">
+        <v>275</v>
+      </c>
+      <c r="B279">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="14">
+        <v>276</v>
+      </c>
+      <c r="B280">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="14">
+        <v>277</v>
+      </c>
+      <c r="B281">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="14">
+        <v>278</v>
+      </c>
+      <c r="B282">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="14">
+        <v>279</v>
+      </c>
+      <c r="B283">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="14">
+        <v>280</v>
+      </c>
+      <c r="B284">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="14">
+        <v>281</v>
+      </c>
+      <c r="B285">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="14">
+        <v>282</v>
+      </c>
+      <c r="B286">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="14">
+        <v>283</v>
+      </c>
+      <c r="B287">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="14">
+        <v>284</v>
+      </c>
+      <c r="B288">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="14">
+        <v>285</v>
+      </c>
+      <c r="B289">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="14">
+        <v>286</v>
+      </c>
+      <c r="B290">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="14">
+        <v>287</v>
+      </c>
+      <c r="B291">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="14">
+        <v>288</v>
+      </c>
+      <c r="B292">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="14">
+        <v>289</v>
+      </c>
+      <c r="B293">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="14">
+        <v>290</v>
+      </c>
+      <c r="B294">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="14">
+        <v>291</v>
+      </c>
+      <c r="B295">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="14">
+        <v>292</v>
+      </c>
+      <c r="B296">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="14">
+        <v>293</v>
+      </c>
+      <c r="B297">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="14">
+        <v>294</v>
+      </c>
+      <c r="B298">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="14">
+        <v>295</v>
+      </c>
+      <c r="B299">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="14">
+        <v>296</v>
+      </c>
+      <c r="B300">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="14">
+        <v>297</v>
+      </c>
+      <c r="B301">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="14">
+        <v>298</v>
+      </c>
+      <c r="B302">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="14">
+        <v>299</v>
+      </c>
+      <c r="B303">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="14">
+        <v>300</v>
+      </c>
+      <c r="B304">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="14">
+        <v>301</v>
+      </c>
+      <c r="B305">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="14">
+        <v>302</v>
+      </c>
+      <c r="B306">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="14">
+        <v>303</v>
+      </c>
+      <c r="B307">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="14">
+        <v>304</v>
+      </c>
+      <c r="B308">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="14">
+        <v>305</v>
+      </c>
+      <c r="B309">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="14">
+        <v>306</v>
+      </c>
+      <c r="B310">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="14">
+        <v>307</v>
+      </c>
+      <c r="B311">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="14">
+        <v>308</v>
+      </c>
+      <c r="B312">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="14">
+        <v>309</v>
+      </c>
+      <c r="B313">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="14">
+        <v>310</v>
+      </c>
+      <c r="B314">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="14">
+        <v>311</v>
+      </c>
+      <c r="B315">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="14">
+        <v>312</v>
+      </c>
+      <c r="B316">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="14">
+        <v>313</v>
+      </c>
+      <c r="B317">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="14">
+        <v>314</v>
+      </c>
+      <c r="B318">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="14">
+        <v>315</v>
+      </c>
+      <c r="B319">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="14">
+        <v>316</v>
+      </c>
+      <c r="B320">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="14">
+        <v>317</v>
+      </c>
+      <c r="B321">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="14">
+        <v>318</v>
+      </c>
+      <c r="B322">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="14">
+        <v>319</v>
+      </c>
+      <c r="B323">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="14">
+        <v>320</v>
+      </c>
+      <c r="B324">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="14">
+        <v>321</v>
+      </c>
+      <c r="B325">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="14">
+        <v>322</v>
+      </c>
+      <c r="B326">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="14">
+        <v>323</v>
+      </c>
+      <c r="B327">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="14">
+        <v>324</v>
+      </c>
+      <c r="B328">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="14">
+        <v>325</v>
+      </c>
+      <c r="B329">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="14">
+        <v>326</v>
+      </c>
+      <c r="B330">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="14">
+        <v>327</v>
+      </c>
+      <c r="B331">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="14">
+        <v>328</v>
+      </c>
+      <c r="B332">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="14">
+        <v>329</v>
+      </c>
+      <c r="B333">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="14">
+        <v>330</v>
+      </c>
+      <c r="B334">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="14">
+        <v>331</v>
+      </c>
+      <c r="B335">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="14">
+        <v>332</v>
+      </c>
+      <c r="B336">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="14">
+        <v>333</v>
+      </c>
+      <c r="B337">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="14">
+        <v>334</v>
+      </c>
+      <c r="B338">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="14">
+        <v>335</v>
+      </c>
+      <c r="B339">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="14">
+        <v>336</v>
+      </c>
+      <c r="B340">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="14">
+        <v>337</v>
+      </c>
+      <c r="B341">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="14">
+        <v>338</v>
+      </c>
+      <c r="B342">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="14">
+        <v>339</v>
+      </c>
+      <c r="B343">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="14">
+        <v>340</v>
+      </c>
+      <c r="B344">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="14">
+        <v>341</v>
+      </c>
+      <c r="B345">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="14">
+        <v>342</v>
+      </c>
+      <c r="B346">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="14">
+        <v>343</v>
+      </c>
+      <c r="B347">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="14">
+        <v>344</v>
+      </c>
+      <c r="B348">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="14">
+        <v>345</v>
+      </c>
+      <c r="B349">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="14">
+        <v>346</v>
+      </c>
+      <c r="B350">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="14">
+        <v>347</v>
+      </c>
+      <c r="B351">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="14">
+        <v>348</v>
+      </c>
+      <c r="B352">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="14">
+        <v>349</v>
+      </c>
+      <c r="B353">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="14">
+        <v>350</v>
+      </c>
+      <c r="B354">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="14">
+        <v>351</v>
+      </c>
+      <c r="B355">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="14">
+        <v>352</v>
+      </c>
+      <c r="B356">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="14">
+        <v>353</v>
+      </c>
+      <c r="B357">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="14">
+        <v>354</v>
+      </c>
+      <c r="B358">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="14">
+        <v>355</v>
+      </c>
+      <c r="B359">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="14">
+        <v>356</v>
+      </c>
+      <c r="B360">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="14">
+        <v>357</v>
+      </c>
+      <c r="B361">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="14">
+        <v>358</v>
+      </c>
+      <c r="B362">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="14">
+        <v>359</v>
+      </c>
+      <c r="B363">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="14">
+        <v>360</v>
+      </c>
+      <c r="B364">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="14">
+        <v>361</v>
+      </c>
+      <c r="B365">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="14">
+        <v>362</v>
+      </c>
+      <c r="B366">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="14">
+        <v>363</v>
+      </c>
+      <c r="B367">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="14">
+        <v>364</v>
+      </c>
+      <c r="B368">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="14">
+        <v>365</v>
+      </c>
+      <c r="B369">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="15">
+        <v>366</v>
+      </c>
+      <c r="B370">
+        <v>16.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataInput/Tables/DataSource/InputTables.xlsx
+++ b/DataInput/Tables/DataSource/InputTables.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="525" windowWidth="23715" windowHeight="11520" activeTab="3"/>
+    <workbookView xWindow="765" yWindow="525" windowWidth="23715" windowHeight="11520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
     <sheet name="landuse.tss" sheetId="2" r:id="rId2"/>
     <sheet name="rain.tss" sheetId="4" r:id="rId3"/>
     <sheet name="airTemp.tss" sheetId="5" r:id="rId4"/>
+    <sheet name="croptbl.tbl" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -22,7 +23,7 @@
     <author>pablo alvarez</author>
   </authors>
   <commentList>
-    <comment ref="G23" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>Maps</t>
   </si>
@@ -168,9 +169,6 @@
     <t>0, 1 (int)</t>
   </si>
   <si>
-    <t>Crop-code (int)</t>
-  </si>
-  <si>
     <t>PCRaster</t>
   </si>
   <si>
@@ -211,9 +209,6 @@
   </si>
   <si>
     <t>Applications-mass (3rd)</t>
-  </si>
-  <si>
-    <t>Applications-mass (4th)</t>
   </si>
   <si>
     <t>ET0</t>
@@ -274,6 +269,126 @@
   </si>
   <si>
     <t>temp (C)</t>
+  </si>
+  <si>
+    <t>Crop-code (int): "landCode"</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>Table de base (cf envoi concepteur Beach)</t>
+  </si>
+  <si>
+    <t>Type d'occupation du sol</t>
+  </si>
+  <si>
+    <t>Croptype</t>
+  </si>
+  <si>
+    <t>Sowing year</t>
+  </si>
+  <si>
+    <t>Sowing month</t>
+  </si>
+  <si>
+    <t>Sowing day</t>
+  </si>
+  <si>
+    <t>length of initial stage of crop growth period (day)</t>
+  </si>
+  <si>
+    <t>development stage of crop growth period (day)</t>
+  </si>
+  <si>
+    <t>mid-season stage of crop growth period (day)</t>
+  </si>
+  <si>
+    <t>late season stage of crop growth period (day)</t>
+  </si>
+  <si>
+    <t>basal crop coefficient at the initial stage</t>
+  </si>
+  <si>
+    <t>basal crop coefficient at the mid-season stage</t>
+  </si>
+  <si>
+    <t>basal crop coefficient at the late season stage</t>
+  </si>
+  <si>
+    <t>maximum leaf area index (m2/m2)</t>
+  </si>
+  <si>
+    <t>light use efficiency</t>
+  </si>
+  <si>
+    <t>crop height (m)</t>
+  </si>
+  <si>
+    <t>maximum root depth (m)</t>
+  </si>
+  <si>
+    <t>fraction of total available soil water content that can be depleted from the root zone before moisture stress occurs [0-1]</t>
+  </si>
+  <si>
+    <t>saturated moisture content of the surface layer (m3/m3)</t>
+  </si>
+  <si>
+    <t>Field capacity moisture content at the surface layer (m3/m3)</t>
+  </si>
+  <si>
+    <t>saturated moisture content of the second layer (m3/m3)</t>
+  </si>
+  <si>
+    <t>field capacity moisture content of the second layer (m3/m3)</t>
+  </si>
+  <si>
+    <t>wilting point moisture content (m3/m3)</t>
+  </si>
+  <si>
+    <t>saturated hydraulic conductivity of surface layer (mm/day)</t>
+  </si>
+  <si>
+    <t>saturated hydraulic conductivity of the second layer (mm/day)</t>
+  </si>
+  <si>
+    <t>SCS curve number value for antecedent moisture condition II</t>
+  </si>
+  <si>
+    <t>Table modifiée pour notre usage</t>
+  </si>
+  <si>
+    <t>landuse = {"Corn": 1, "Wheat": 2, "Oats": 3, "Alfalfa": 4, "Beet": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               "Greenery": 6, "Dirt Road": 7, "Grass Road": 8, "Paved Road": 9, "Ditch": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               "Fallow": 11, "Hedge": 12, "Orchard": 13}</t>
+  </si>
+  <si>
+    <t>landuse</t>
+  </si>
+  <si>
+    <t>croptype</t>
+  </si>
+  <si>
+    <t>sow_yy</t>
+  </si>
+  <si>
+    <t>sow_mm</t>
+  </si>
+  <si>
+    <t>sow_dd</t>
+  </si>
+  <si>
+    <t>len_gstage_ini</t>
+  </si>
+  <si>
+    <t>len_dev_stage</t>
+  </si>
+  <si>
+    <t>len_mid_stage</t>
   </si>
 </sst>
 </file>
@@ -453,7 +568,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +766,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -831,7 +964,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,6 +999,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1209,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1384,7 @@
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36" style="6" bestFit="1" customWidth="1"/>
   </cols>
@@ -1246,7 +1409,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1269,7 +1432,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,7 +1449,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,7 +1466,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1340,13 +1503,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>28</v>
@@ -1374,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,13 +1554,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1425,13 +1588,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1439,16 +1602,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,16 +1619,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1473,16 +1636,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1490,16 +1653,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1507,165 +1670,163 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="1" t="s">
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="8" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1679,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW417"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56542,7 +56703,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -56552,12 +56713,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -59497,7 +59658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B370"/>
     </sheetView>
   </sheetViews>
@@ -59505,7 +59666,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -59515,12 +59676,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -62454,4 +62615,1845 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="13" width="16" customWidth="1"/>
+    <col min="14" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="35.42578125" customWidth="1"/>
+    <col min="18" max="25" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+    </row>
+    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>-999</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23">
+        <v>6</v>
+      </c>
+      <c r="H3" s="23">
+        <v>7</v>
+      </c>
+      <c r="I3" s="23">
+        <v>8</v>
+      </c>
+      <c r="J3" s="23">
+        <v>9</v>
+      </c>
+      <c r="K3" s="23">
+        <v>10</v>
+      </c>
+      <c r="L3" s="23">
+        <v>11</v>
+      </c>
+      <c r="M3" s="23">
+        <v>12</v>
+      </c>
+      <c r="N3" s="23">
+        <v>13</v>
+      </c>
+      <c r="O3" s="23">
+        <v>14</v>
+      </c>
+      <c r="P3" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>16</v>
+      </c>
+      <c r="R3" s="23">
+        <v>17</v>
+      </c>
+      <c r="S3" s="23">
+        <v>18</v>
+      </c>
+      <c r="T3" s="23">
+        <v>19</v>
+      </c>
+      <c r="U3" s="23">
+        <v>20</v>
+      </c>
+      <c r="V3" s="23">
+        <v>21</v>
+      </c>
+      <c r="W3" s="23">
+        <v>22</v>
+      </c>
+      <c r="X3" s="23">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>99</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U4" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="V4" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W4" s="23">
+        <v>25.33</v>
+      </c>
+      <c r="X4" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y4" s="23">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D5" s="23">
+        <v>4</v>
+      </c>
+      <c r="E5" s="23">
+        <v>20</v>
+      </c>
+      <c r="F5" s="23">
+        <v>30</v>
+      </c>
+      <c r="G5" s="23">
+        <v>60</v>
+      </c>
+      <c r="H5" s="23">
+        <v>120</v>
+      </c>
+      <c r="I5" s="23">
+        <v>60</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="S5" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="T5" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U5" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="V5" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W5" s="23">
+        <v>25.33</v>
+      </c>
+      <c r="X5" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y5" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2003</v>
+      </c>
+      <c r="D6" s="23">
+        <v>10</v>
+      </c>
+      <c r="E6" s="23">
+        <v>20</v>
+      </c>
+      <c r="F6" s="23">
+        <v>150</v>
+      </c>
+      <c r="G6" s="23">
+        <v>65</v>
+      </c>
+      <c r="H6" s="23">
+        <v>65</v>
+      </c>
+      <c r="I6" s="23">
+        <v>25</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K6" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O6" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="T6" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U6" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V6" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W6" s="23">
+        <v>10</v>
+      </c>
+      <c r="X6" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D7" s="23">
+        <v>3</v>
+      </c>
+      <c r="E7" s="23">
+        <v>20</v>
+      </c>
+      <c r="F7" s="23">
+        <v>30</v>
+      </c>
+      <c r="G7" s="23">
+        <v>40</v>
+      </c>
+      <c r="H7" s="23">
+        <v>60</v>
+      </c>
+      <c r="I7" s="23">
+        <v>30</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O7" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R7" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="S7" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="T7" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U7" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V7" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W7" s="23">
+        <v>10</v>
+      </c>
+      <c r="X7" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y7" s="23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D8" s="23">
+        <v>4</v>
+      </c>
+      <c r="E8" s="23">
+        <v>20</v>
+      </c>
+      <c r="F8" s="23">
+        <v>30</v>
+      </c>
+      <c r="G8" s="23">
+        <v>40</v>
+      </c>
+      <c r="H8" s="23">
+        <v>60</v>
+      </c>
+      <c r="I8" s="23">
+        <v>30</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="M8" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="R8" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U8" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V8" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W8" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="X8" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y8" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D9" s="23">
+        <v>4</v>
+      </c>
+      <c r="E9" s="23">
+        <v>20</v>
+      </c>
+      <c r="F9" s="23">
+        <v>30</v>
+      </c>
+      <c r="G9" s="23">
+        <v>40</v>
+      </c>
+      <c r="H9" s="23">
+        <v>60</v>
+      </c>
+      <c r="I9" s="23">
+        <v>30</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="M9" s="23">
+        <v>3</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="R9" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="T9" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U9" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V9" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W9" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="X9" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>6</v>
+      </c>
+      <c r="B10" s="23">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23">
+        <v>45</v>
+      </c>
+      <c r="H10" s="23">
+        <v>225</v>
+      </c>
+      <c r="I10" s="23">
+        <v>50</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="M10" s="23">
+        <v>2</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R10" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="S10" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="T10" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U10" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V10" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W10" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="X10" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y10" s="23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>13</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23">
+        <v>45</v>
+      </c>
+      <c r="G11" s="23">
+        <v>45</v>
+      </c>
+      <c r="H11" s="23">
+        <v>225</v>
+      </c>
+      <c r="I11" s="23">
+        <v>50</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1.86</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="P11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="T11" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U11" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W11" s="23">
+        <v>5.85</v>
+      </c>
+      <c r="X11" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y11" s="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>7</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D12" s="23">
+        <v>5</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>20</v>
+      </c>
+      <c r="G12" s="23">
+        <v>35</v>
+      </c>
+      <c r="H12" s="23">
+        <v>70</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="M12" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="P12" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="S12" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="T12" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U12" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V12" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W12" s="23">
+        <v>25.33</v>
+      </c>
+      <c r="X12" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y12" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>8</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D13" s="23">
+        <v>4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>20</v>
+      </c>
+      <c r="F13" s="23">
+        <v>45</v>
+      </c>
+      <c r="G13" s="23">
+        <v>30</v>
+      </c>
+      <c r="H13" s="23">
+        <v>70</v>
+      </c>
+      <c r="I13" s="23">
+        <v>20</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K13" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M13" s="23">
+        <v>4</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="P13" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="R13" s="23">
+        <v>0.38</v>
+      </c>
+      <c r="S13" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="T13" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U13" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V13" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W13" s="23">
+        <v>25.33</v>
+      </c>
+      <c r="X13" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y13" s="23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>9</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1</v>
+      </c>
+      <c r="C14" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D14" s="23">
+        <v>4</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23">
+        <v>50</v>
+      </c>
+      <c r="G14" s="23">
+        <v>40</v>
+      </c>
+      <c r="H14" s="23">
+        <v>50</v>
+      </c>
+      <c r="I14" s="23">
+        <v>40</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K14" s="23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="S14" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="T14" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U14" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V14" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W14" s="23">
+        <v>9.44</v>
+      </c>
+      <c r="X14" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y14" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>10</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23">
+        <v>2003</v>
+      </c>
+      <c r="D15" s="23">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23">
+        <v>20</v>
+      </c>
+      <c r="F15" s="23">
+        <v>150</v>
+      </c>
+      <c r="G15" s="23">
+        <v>65</v>
+      </c>
+      <c r="H15" s="23">
+        <v>65</v>
+      </c>
+      <c r="I15" s="23">
+        <v>25</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="23">
+        <v>3</v>
+      </c>
+      <c r="N15" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O15" s="23">
+        <v>1</v>
+      </c>
+      <c r="P15" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R15" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="S15" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="T15" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U15" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="V15" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W15" s="23">
+        <v>10</v>
+      </c>
+      <c r="X15" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y15" s="23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D16" s="23">
+        <v>8</v>
+      </c>
+      <c r="E16" s="23">
+        <v>20</v>
+      </c>
+      <c r="F16" s="23">
+        <v>15</v>
+      </c>
+      <c r="G16" s="23">
+        <v>25</v>
+      </c>
+      <c r="H16" s="23">
+        <v>60</v>
+      </c>
+      <c r="I16" s="23">
+        <v>15</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K16" s="23">
+        <v>1.05</v>
+      </c>
+      <c r="L16" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="23">
+        <v>4</v>
+      </c>
+      <c r="N16" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O16" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="P16" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="R16" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="S16" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="T16" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U16" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V16" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W16" s="23">
+        <v>30.1</v>
+      </c>
+      <c r="X16" s="23">
+        <v>25.55</v>
+      </c>
+      <c r="Y16" s="23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>12</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2004</v>
+      </c>
+      <c r="D17" s="23">
+        <v>5</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>30</v>
+      </c>
+      <c r="G17" s="23">
+        <v>50</v>
+      </c>
+      <c r="H17" s="23">
+        <v>45</v>
+      </c>
+      <c r="I17" s="23">
+        <v>20</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="M17" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="N17" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="O17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="R17" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="S17" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="T17" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="U17" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="V17" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="W17" s="23">
+        <v>30.1</v>
+      </c>
+      <c r="X17" s="23">
+        <v>25.85</v>
+      </c>
+      <c r="Y17" s="23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+    </row>
+    <row r="21" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="T21" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="V21" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="X21" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>-999</v>
+      </c>
+      <c r="B23" s="26">
+        <v>1</v>
+      </c>
+      <c r="C23" s="26">
+        <v>2</v>
+      </c>
+      <c r="D23" s="26">
+        <v>3</v>
+      </c>
+      <c r="E23" s="26">
+        <v>4</v>
+      </c>
+      <c r="F23" s="26">
+        <v>5</v>
+      </c>
+      <c r="G23" s="26">
+        <v>6</v>
+      </c>
+      <c r="H23" s="26">
+        <v>7</v>
+      </c>
+      <c r="I23" s="26">
+        <v>8</v>
+      </c>
+      <c r="J23" s="26">
+        <v>9</v>
+      </c>
+      <c r="K23" s="26">
+        <v>10</v>
+      </c>
+      <c r="L23" s="26">
+        <v>11</v>
+      </c>
+      <c r="M23" s="26">
+        <v>12</v>
+      </c>
+      <c r="N23" s="26">
+        <v>13</v>
+      </c>
+      <c r="O23" s="26">
+        <v>14</v>
+      </c>
+      <c r="P23" s="26">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>16</v>
+      </c>
+      <c r="R23" s="26">
+        <v>17</v>
+      </c>
+      <c r="S23" s="26">
+        <v>18</v>
+      </c>
+      <c r="T23" s="26">
+        <v>19</v>
+      </c>
+      <c r="U23" s="26">
+        <v>20</v>
+      </c>
+      <c r="V23" s="26">
+        <v>21</v>
+      </c>
+      <c r="W23" s="26">
+        <v>22</v>
+      </c>
+      <c r="X23" s="26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>1</v>
+      </c>
+      <c r="B24" s="27">
+        <v>1</v>
+      </c>
+      <c r="C24" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>2</v>
+      </c>
+      <c r="B25" s="27">
+        <v>2</v>
+      </c>
+      <c r="C25" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>5</v>
+      </c>
+      <c r="B26" s="27">
+        <v>5</v>
+      </c>
+      <c r="C26" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="27">
+        <v>6</v>
+      </c>
+      <c r="C27" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>7</v>
+      </c>
+      <c r="B28" s="27">
+        <v>7</v>
+      </c>
+      <c r="C28" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>8</v>
+      </c>
+      <c r="B29" s="27">
+        <v>8</v>
+      </c>
+      <c r="C29" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>9</v>
+      </c>
+      <c r="B30" s="27">
+        <v>9</v>
+      </c>
+      <c r="C30" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>10</v>
+      </c>
+      <c r="B31" s="27">
+        <v>10</v>
+      </c>
+      <c r="C31" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>11</v>
+      </c>
+      <c r="B32" s="27">
+        <v>11</v>
+      </c>
+      <c r="C32" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>13</v>
+      </c>
+      <c r="B33" s="27">
+        <v>13</v>
+      </c>
+      <c r="C33" s="27">
+        <v>2016</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DataInput/Tables/DataSource/InputTables.xlsx
+++ b/DataInput/Tables/DataSource/InputTables.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="525" windowWidth="23715" windowHeight="11520" activeTab="4"/>
+    <workbookView xWindow="765" yWindow="525" windowWidth="23715" windowHeight="11520" tabRatio="807" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
-    <sheet name="landuse.tss" sheetId="2" r:id="rId2"/>
-    <sheet name="rain.tss" sheetId="4" r:id="rId3"/>
-    <sheet name="airTemp.tss" sheetId="5" r:id="rId4"/>
-    <sheet name="croptbl.tbl" sheetId="6" r:id="rId5"/>
+    <sheet name="Doubts" sheetId="7" r:id="rId1"/>
+    <sheet name="Checklist" sheetId="1" r:id="rId2"/>
+    <sheet name="croptbl.xls" sheetId="6" r:id="rId3"/>
+    <sheet name="landuse.tss" sheetId="2" r:id="rId4"/>
+    <sheet name="rain.tss" sheetId="4" r:id="rId5"/>
+    <sheet name="airTemp.tss" sheetId="5" r:id="rId6"/>
+    <sheet name="croptable.tbl" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="205">
   <si>
     <t>Maps</t>
   </si>
@@ -370,9 +372,6 @@
     <t>landuse</t>
   </si>
   <si>
-    <t>croptype</t>
-  </si>
-  <si>
     <t>sow_yy</t>
   </si>
   <si>
@@ -382,20 +381,302 @@
     <t>sow_dd</t>
   </si>
   <si>
-    <t>len_gstage_ini</t>
-  </si>
-  <si>
     <t>len_dev_stage</t>
   </si>
   <si>
     <t>len_mid_stage</t>
+  </si>
+  <si>
+    <t>crop_type</t>
+  </si>
+  <si>
+    <t>len_end_stage</t>
+  </si>
+  <si>
+    <t>len_grow_stage_ini</t>
+  </si>
+  <si>
+    <t>kcb_ini</t>
+  </si>
+  <si>
+    <t>kcb_mid</t>
+  </si>
+  <si>
+    <t>kcb_end</t>
+  </si>
+  <si>
+    <t>max_LAI</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>max_height</t>
+  </si>
+  <si>
+    <t>max_root_depth</t>
+  </si>
+  <si>
+    <t>p_tab</t>
+  </si>
+  <si>
+    <t>theta_sat_z0z1</t>
+  </si>
+  <si>
+    <t>theta_fcap_z0z1</t>
+  </si>
+  <si>
+    <t>theta_sat_z2</t>
+  </si>
+  <si>
+    <t>theta_fcap_z2</t>
+  </si>
+  <si>
+    <t>theta_wp</t>
+  </si>
+  <si>
+    <t>k_sat_z0z1</t>
+  </si>
+  <si>
+    <t>k_sat_z2</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>VE +  V1-V5</t>
+  </si>
+  <si>
+    <t>V6-V8</t>
+  </si>
+  <si>
+    <t>V12-VT</t>
+  </si>
+  <si>
+    <t>4-6 weeks</t>
+  </si>
+  <si>
+    <t>6-8 weeks</t>
+  </si>
+  <si>
+    <t>9-10 weeks</t>
+  </si>
+  <si>
+    <t>Time since VE</t>
+  </si>
+  <si>
+    <t>V9-V11</t>
+  </si>
+  <si>
+    <t>0-4 weeks</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>http://www.channel.com/agronomics/Documents/AgronomicContentPDF/GrowthStages%20GuidesChannel.pdf</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>E + DR</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat type: </t>
+  </si>
+  <si>
+    <t>Time since Emergence (days)</t>
+  </si>
+  <si>
+    <t>TS + FN</t>
+  </si>
+  <si>
+    <t>E=emergence; DR=double ridge appearance; TS=terminal spikelet initiation; FN+First node; HD=heading; A=anthesis; BGF=beginning of grainfilling period; PM=physiological maturity;</t>
+  </si>
+  <si>
+    <t>HD + A</t>
+  </si>
+  <si>
+    <t>BGF + PM</t>
+  </si>
+  <si>
+    <t>See script: croptable.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fao.org/docrep/006/y4011e/y4011e06.htm </t>
+  </si>
+  <si>
+    <t>Beet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fao.org/land-water/databases-and-software/crop-information/sugarbeet/en/ </t>
+  </si>
+  <si>
+    <t>Assumed for USA, plantdate: April</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Crop Dev</t>
+  </si>
+  <si>
+    <t>Mid-season</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Root Depth (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fao.org/land-water/databases-and-software/crop-information/maize/en/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_tab (-) (depletion) </t>
+  </si>
+  <si>
+    <t>Kc (-) (crop coefficient)</t>
+  </si>
+  <si>
+    <t>Wheat secondary source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fao.org/land-water/databases-and-software/crop-information/wheat/en/ </t>
+  </si>
+  <si>
+    <t>Corn - Secondary Source:</t>
+  </si>
+  <si>
+    <t>Values used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat (winter): </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>green LAI</t>
+  </si>
+  <si>
+    <t>https://cereals.ahdb.org.uk/media/185687/g66-wheat-growth-guide.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max LAI: </t>
+  </si>
+  <si>
+    <t>http://www.fao.org/docrep/016/i2800e/i2800e06.pdf</t>
+  </si>
+  <si>
+    <t>https://hal.archives-ouvertes.fr/hal-00885846/document</t>
+  </si>
+  <si>
+    <t>Max LAI:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Andrieu1997</t>
+  </si>
+  <si>
+    <t>Light Use eff:</t>
+  </si>
+  <si>
+    <t>3.3 -3.8 g/MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8 g/MJ</t>
+  </si>
+  <si>
+    <t>1.5  g/MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Cannell1988</t>
+  </si>
+  <si>
+    <t>Light Use Efficiency and Woody Biomass Production of Poplar and Willow</t>
+  </si>
+  <si>
+    <t>Radiation Use Efficiency (g / MJ)</t>
+  </si>
+  <si>
+    <t>http://forestry.oxfordjournals.org/</t>
+  </si>
+  <si>
+    <t>Cannell1988:</t>
+  </si>
+  <si>
+    <t>max height:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Sylvester-Bradley2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Lindquist1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @quick search</t>
+  </si>
+  <si>
+    <t>field measurement</t>
+  </si>
+  <si>
+    <t>Max height:</t>
+  </si>
+  <si>
+    <t>2.43 m</t>
+  </si>
+  <si>
+    <t>0.79 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.55 m</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Method for estimating biomass_cover (CV) might be incorrect</t>
+  </si>
+  <si>
+    <t>Relevant function</t>
+  </si>
+  <si>
+    <t>getBiomassCover()</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>CV is an input parameter in SWAT, to: (a) calculate the soil cover index and (b) to calculate the bcv paramter used in soil temperature calculations (eq. 1:1.3.11)</t>
+  </si>
+  <si>
+    <t>Potential problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcv values are not 0 with bare soils, and not close to 1 when soil is fully covered. </t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Check bcv.tss against soil cover fraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,8 +848,24 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,8 +1081,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -918,8 +1227,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -963,8 +1334,9 @@
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1006,12 +1378,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1029,8 +1395,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="13" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
@@ -1061,6 +1543,7 @@
     <cellStyle name="Commentaire" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8"/>
     <cellStyle name="Neutre" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="5" builtinId="26" customBuiltin="1"/>
@@ -1083,6 +1566,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29684</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524749" y="15389679"/>
+          <a:ext cx="6506685" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1371,11 +1897,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,11 +2418,2612 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y66"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+    </row>
+    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>-999</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4</v>
+      </c>
+      <c r="F3" s="21">
+        <v>5</v>
+      </c>
+      <c r="G3" s="21">
+        <v>6</v>
+      </c>
+      <c r="H3" s="21">
+        <v>7</v>
+      </c>
+      <c r="I3" s="21">
+        <v>8</v>
+      </c>
+      <c r="J3" s="21">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21">
+        <v>10</v>
+      </c>
+      <c r="L3" s="21">
+        <v>11</v>
+      </c>
+      <c r="M3" s="21">
+        <v>12</v>
+      </c>
+      <c r="N3" s="21">
+        <v>13</v>
+      </c>
+      <c r="O3" s="21">
+        <v>14</v>
+      </c>
+      <c r="P3" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>16</v>
+      </c>
+      <c r="R3" s="21">
+        <v>17</v>
+      </c>
+      <c r="S3" s="21">
+        <v>18</v>
+      </c>
+      <c r="T3" s="21">
+        <v>19</v>
+      </c>
+      <c r="U3" s="21">
+        <v>20</v>
+      </c>
+      <c r="V3" s="21">
+        <v>21</v>
+      </c>
+      <c r="W3" s="21">
+        <v>22</v>
+      </c>
+      <c r="X3" s="21">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>99</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0</v>
+      </c>
+      <c r="R4" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="S4" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U4" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W4" s="21">
+        <v>25.33</v>
+      </c>
+      <c r="X4" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D5" s="21">
+        <v>4</v>
+      </c>
+      <c r="E5" s="21">
+        <v>20</v>
+      </c>
+      <c r="F5" s="21">
+        <v>30</v>
+      </c>
+      <c r="G5" s="21">
+        <v>60</v>
+      </c>
+      <c r="H5" s="21">
+        <v>120</v>
+      </c>
+      <c r="I5" s="21">
+        <v>60</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="S5" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W5" s="21">
+        <v>25.33</v>
+      </c>
+      <c r="X5" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2003</v>
+      </c>
+      <c r="D6" s="21">
+        <v>10</v>
+      </c>
+      <c r="E6" s="21">
+        <v>20</v>
+      </c>
+      <c r="F6" s="21">
+        <v>150</v>
+      </c>
+      <c r="G6" s="21">
+        <v>65</v>
+      </c>
+      <c r="H6" s="21">
+        <v>65</v>
+      </c>
+      <c r="I6" s="21">
+        <v>25</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O6" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R6" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="T6" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U6" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V6" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W6" s="21">
+        <v>10</v>
+      </c>
+      <c r="X6" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D7" s="21">
+        <v>3</v>
+      </c>
+      <c r="E7" s="21">
+        <v>20</v>
+      </c>
+      <c r="F7" s="21">
+        <v>30</v>
+      </c>
+      <c r="G7" s="21">
+        <v>40</v>
+      </c>
+      <c r="H7" s="21">
+        <v>60</v>
+      </c>
+      <c r="I7" s="21">
+        <v>30</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P7" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R7" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="S7" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="T7" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U7" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W7" s="21">
+        <v>10</v>
+      </c>
+      <c r="X7" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4</v>
+      </c>
+      <c r="E8" s="21">
+        <v>20</v>
+      </c>
+      <c r="F8" s="21">
+        <v>30</v>
+      </c>
+      <c r="G8" s="21">
+        <v>40</v>
+      </c>
+      <c r="H8" s="21">
+        <v>60</v>
+      </c>
+      <c r="I8" s="21">
+        <v>30</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="M8" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O8" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="P8" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="R8" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="S8" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U8" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V8" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W8" s="21">
+        <v>9.44</v>
+      </c>
+      <c r="X8" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y8" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>5</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D9" s="21">
+        <v>4</v>
+      </c>
+      <c r="E9" s="21">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21">
+        <v>30</v>
+      </c>
+      <c r="G9" s="21">
+        <v>40</v>
+      </c>
+      <c r="H9" s="21">
+        <v>60</v>
+      </c>
+      <c r="I9" s="21">
+        <v>30</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="M9" s="21">
+        <v>3</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="R9" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="T9" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U9" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V9" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W9" s="21">
+        <v>9.44</v>
+      </c>
+      <c r="X9" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>6</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>45</v>
+      </c>
+      <c r="G10" s="21">
+        <v>45</v>
+      </c>
+      <c r="H10" s="21">
+        <v>225</v>
+      </c>
+      <c r="I10" s="21">
+        <v>50</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="M10" s="21">
+        <v>2</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R10" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="S10" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="T10" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U10" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V10" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W10" s="21">
+        <v>9.44</v>
+      </c>
+      <c r="X10" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>13</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>45</v>
+      </c>
+      <c r="G11" s="21">
+        <v>45</v>
+      </c>
+      <c r="H11" s="21">
+        <v>225</v>
+      </c>
+      <c r="I11" s="21">
+        <v>50</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="M11" s="21">
+        <v>1.86</v>
+      </c>
+      <c r="N11" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="O11" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="P11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R11" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="S11" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="T11" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U11" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W11" s="21">
+        <v>5.85</v>
+      </c>
+      <c r="X11" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>20</v>
+      </c>
+      <c r="G12" s="21">
+        <v>35</v>
+      </c>
+      <c r="H12" s="21">
+        <v>70</v>
+      </c>
+      <c r="I12" s="21">
+        <v>45</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="M12" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="N12" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O12" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="P12" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="S12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="T12" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U12" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V12" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W12" s="21">
+        <v>25.33</v>
+      </c>
+      <c r="X12" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4</v>
+      </c>
+      <c r="E13" s="21">
+        <v>20</v>
+      </c>
+      <c r="F13" s="21">
+        <v>45</v>
+      </c>
+      <c r="G13" s="21">
+        <v>30</v>
+      </c>
+      <c r="H13" s="21">
+        <v>70</v>
+      </c>
+      <c r="I13" s="21">
+        <v>20</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M13" s="21">
+        <v>4</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="P13" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="R13" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="S13" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="T13" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U13" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V13" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W13" s="21">
+        <v>25.33</v>
+      </c>
+      <c r="X13" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>9</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D14" s="21">
+        <v>4</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>50</v>
+      </c>
+      <c r="G14" s="21">
+        <v>40</v>
+      </c>
+      <c r="H14" s="21">
+        <v>50</v>
+      </c>
+      <c r="I14" s="21">
+        <v>40</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R14" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="S14" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="T14" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U14" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V14" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W14" s="21">
+        <v>9.44</v>
+      </c>
+      <c r="X14" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y14" s="21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>10</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2003</v>
+      </c>
+      <c r="D15" s="21">
+        <v>10</v>
+      </c>
+      <c r="E15" s="21">
+        <v>20</v>
+      </c>
+      <c r="F15" s="21">
+        <v>150</v>
+      </c>
+      <c r="G15" s="21">
+        <v>65</v>
+      </c>
+      <c r="H15" s="21">
+        <v>65</v>
+      </c>
+      <c r="I15" s="21">
+        <v>25</v>
+      </c>
+      <c r="J15" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="21">
+        <v>3</v>
+      </c>
+      <c r="N15" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O15" s="21">
+        <v>1</v>
+      </c>
+      <c r="P15" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R15" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="S15" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="T15" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U15" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="V15" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W15" s="21">
+        <v>10</v>
+      </c>
+      <c r="X15" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>11</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D16" s="21">
+        <v>8</v>
+      </c>
+      <c r="E16" s="21">
+        <v>20</v>
+      </c>
+      <c r="F16" s="21">
+        <v>15</v>
+      </c>
+      <c r="G16" s="21">
+        <v>25</v>
+      </c>
+      <c r="H16" s="21">
+        <v>60</v>
+      </c>
+      <c r="I16" s="21">
+        <v>15</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K16" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="21">
+        <v>4</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O16" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="P16" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="R16" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="S16" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="T16" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V16" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W16" s="21">
+        <v>30.1</v>
+      </c>
+      <c r="X16" s="21">
+        <v>25.55</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>12</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
+        <v>2004</v>
+      </c>
+      <c r="D17" s="21">
+        <v>5</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>30</v>
+      </c>
+      <c r="G17" s="21">
+        <v>50</v>
+      </c>
+      <c r="H17" s="21">
+        <v>45</v>
+      </c>
+      <c r="I17" s="21">
+        <v>20</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="M17" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="N17" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="O17" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="R17" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="S17" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="T17" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="U17" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="V17" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="W17" s="21">
+        <v>30.1</v>
+      </c>
+      <c r="X17" s="21">
+        <v>25.85</v>
+      </c>
+      <c r="Y17" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+    </row>
+    <row r="21" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="T21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y21" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="X22" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y22" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>-999</v>
+      </c>
+      <c r="B23" s="24">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2</v>
+      </c>
+      <c r="D23" s="24">
+        <v>3</v>
+      </c>
+      <c r="E23" s="24">
+        <v>4</v>
+      </c>
+      <c r="F23" s="24">
+        <v>5</v>
+      </c>
+      <c r="G23" s="24">
+        <v>6</v>
+      </c>
+      <c r="H23" s="24">
+        <v>7</v>
+      </c>
+      <c r="I23" s="24">
+        <v>8</v>
+      </c>
+      <c r="J23" s="24">
+        <v>9</v>
+      </c>
+      <c r="K23" s="24">
+        <v>10</v>
+      </c>
+      <c r="L23" s="24">
+        <v>11</v>
+      </c>
+      <c r="M23" s="24">
+        <v>12</v>
+      </c>
+      <c r="N23" s="24">
+        <v>13</v>
+      </c>
+      <c r="O23" s="24">
+        <v>14</v>
+      </c>
+      <c r="P23" s="24">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>16</v>
+      </c>
+      <c r="R23" s="24">
+        <v>17</v>
+      </c>
+      <c r="S23" s="24">
+        <v>18</v>
+      </c>
+      <c r="T23" s="24">
+        <v>19</v>
+      </c>
+      <c r="U23" s="24">
+        <v>20</v>
+      </c>
+      <c r="V23" s="24">
+        <v>21</v>
+      </c>
+      <c r="W23" s="24">
+        <v>22</v>
+      </c>
+      <c r="X23" s="24">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>1</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>5</v>
+      </c>
+      <c r="B26" s="25">
+        <v>5</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>6</v>
+      </c>
+      <c r="B27" s="25">
+        <v>6</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>7</v>
+      </c>
+      <c r="B28" s="25">
+        <v>7</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>8</v>
+      </c>
+      <c r="B29" s="25">
+        <v>8</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>9</v>
+      </c>
+      <c r="B30" s="25">
+        <v>9</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>10</v>
+      </c>
+      <c r="B31" s="25">
+        <v>10</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>11</v>
+      </c>
+      <c r="B32" s="25">
+        <v>11</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>13</v>
+      </c>
+      <c r="B33" s="25">
+        <v>13</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="52"/>
+      <c r="M40" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+    </row>
+    <row r="41" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" s="66"/>
+      <c r="H41" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I41" s="49">
+        <v>7</v>
+      </c>
+      <c r="J41" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" s="50"/>
+      <c r="M41" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="N41" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="O41" s="64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="49">
+        <v>25</v>
+      </c>
+      <c r="D42" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="F42" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" s="48"/>
+      <c r="K42" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="M42" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="O42" s="56">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="49">
+        <v>40</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="58"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="M43" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="N43" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="O43" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="49">
+        <v>40</v>
+      </c>
+      <c r="D44" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="F44" s="49">
+        <v>1.2</v>
+      </c>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="50"/>
+      <c r="M44" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="O44" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="49">
+        <v>35</v>
+      </c>
+      <c r="D45" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="E45" s="49">
+        <v>1</v>
+      </c>
+      <c r="F45" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="50"/>
+      <c r="M45" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="N45" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="O45" s="57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M47" s="67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="52"/>
+      <c r="M48" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+    </row>
+    <row r="49" spans="1:17" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="49">
+        <v>6.3</v>
+      </c>
+      <c r="J49" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="38"/>
+      <c r="M49" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="N49" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q49" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="37">
+        <v>160</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="E50" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="F50" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="G50" s="37"/>
+      <c r="H50" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="K50" t="s">
+        <v>181</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N50" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="O50" s="40"/>
+      <c r="P50" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q50" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="37">
+        <v>75</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="41"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="J51" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="M51" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="N51" s="41">
+        <v>20</v>
+      </c>
+      <c r="O51" s="41">
+        <v>35</v>
+      </c>
+      <c r="P51" s="43">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="37">
+        <v>75</v>
+      </c>
+      <c r="D52" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="E52" s="69">
+        <v>1</v>
+      </c>
+      <c r="F52" s="43">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
+      <c r="M52" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="N52" s="41">
+        <v>60</v>
+      </c>
+      <c r="O52" s="41">
+        <v>80</v>
+      </c>
+      <c r="P52" s="43">
+        <f>N52-P51</f>
+        <v>40</v>
+      </c>
+      <c r="Q52" s="41">
+        <f>O52-Q51</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="37">
+        <v>25</v>
+      </c>
+      <c r="D53" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="E53" s="43">
+        <v>1.4</v>
+      </c>
+      <c r="F53" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
+      <c r="M53" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="N53" s="41">
+        <v>100</v>
+      </c>
+      <c r="O53" s="41">
+        <v>130</v>
+      </c>
+      <c r="P53" s="43">
+        <f>N53-(P52+P51)</f>
+        <v>40</v>
+      </c>
+      <c r="Q53" s="41">
+        <f>O53-(Q52+Q51)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="46"/>
+      <c r="M54" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="N54" s="41">
+        <v>140</v>
+      </c>
+      <c r="O54" s="41">
+        <v>170</v>
+      </c>
+      <c r="P54" s="43">
+        <f>N54-(P53+P52+P51)</f>
+        <v>40</v>
+      </c>
+      <c r="Q54" s="41">
+        <f>O54-(Q53+Q52+Q51)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="M55" s="44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="52"/>
+    </row>
+    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="B57" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" s="66"/>
+      <c r="H57" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="J57" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="K57" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="43">
+        <v>50</v>
+      </c>
+      <c r="D58" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="F58" s="43">
+        <v>0.35</v>
+      </c>
+      <c r="G58" s="37"/>
+      <c r="H58" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" s="71"/>
+      <c r="K58" s="66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="43">
+        <v>40</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="41"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" s="38"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="43">
+        <v>50</v>
+      </c>
+      <c r="D60" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="E60" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="F60" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="38"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="43">
+        <v>40</v>
+      </c>
+      <c r="D61" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="E61" s="43">
+        <v>1</v>
+      </c>
+      <c r="F61" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="38"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H64" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M40" r:id="rId1"/>
+    <hyperlink ref="M48" r:id="rId2"/>
+    <hyperlink ref="B56" r:id="rId3"/>
+    <hyperlink ref="B40" r:id="rId4"/>
+    <hyperlink ref="B48" r:id="rId5"/>
+    <hyperlink ref="J49" r:id="rId6"/>
+    <hyperlink ref="J41" r:id="rId7"/>
+    <hyperlink ref="J57" r:id="rId8"/>
+    <hyperlink ref="H66" r:id="rId9"/>
+    <hyperlink ref="J51" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW417"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B52" sqref="B52:P52"/>
     </sheetView>
   </sheetViews>
@@ -56691,7 +59874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B370"/>
   <sheetViews>
@@ -59654,11 +62837,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B370"/>
     </sheetView>
   </sheetViews>
@@ -62617,1843 +65800,864 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="13" width="16" customWidth="1"/>
-    <col min="14" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="35.42578125" customWidth="1"/>
-    <col min="18" max="25" width="15.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-    </row>
-    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A1" s="22">
+        <v>-999</v>
+      </c>
+      <c r="B1" s="22">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22">
+        <v>11</v>
+      </c>
+      <c r="M1" s="22">
+        <v>12</v>
+      </c>
+      <c r="N1" s="22">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22">
+        <v>14</v>
+      </c>
+      <c r="P1" s="22">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>16</v>
+      </c>
+      <c r="R1" s="22">
+        <v>17</v>
+      </c>
+      <c r="S1" s="22">
+        <v>18</v>
+      </c>
+      <c r="T1" s="22">
+        <v>19</v>
+      </c>
+      <c r="U1" s="22">
+        <v>20</v>
+      </c>
+      <c r="V1" s="22">
+        <v>21</v>
+      </c>
+      <c r="W1" s="22">
+        <v>22</v>
+      </c>
+      <c r="X1" s="22">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
+        <v>2016</v>
+      </c>
+      <c r="D2" s="22">
+        <v>5</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>28</v>
+      </c>
+      <c r="G2" s="22">
+        <v>14</v>
+      </c>
+      <c r="H2" s="22">
+        <v>14</v>
+      </c>
+      <c r="I2" s="22">
+        <v>14</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="22">
+        <v>7</v>
+      </c>
+      <c r="N2" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="O2" s="22">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="P2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S2" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T2" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U2" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V2" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W2" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X2" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="22">
+        <v>10</v>
+      </c>
+      <c r="E3" s="22">
+        <v>15</v>
+      </c>
+      <c r="F3" s="22">
+        <v>160</v>
+      </c>
+      <c r="G3" s="22">
         <v>75</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="H3" s="22">
+        <v>75</v>
+      </c>
+      <c r="I3" s="22">
+        <v>25</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="22">
+        <v>6.3</v>
+      </c>
+      <c r="N3" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0.79</v>
+      </c>
+      <c r="P3" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X3" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22">
+        <v>5</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2016</v>
+      </c>
+      <c r="D4" s="22">
+        <v>3</v>
+      </c>
+      <c r="E4" s="22">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22">
+        <v>50</v>
+      </c>
+      <c r="G4" s="22">
+        <v>40</v>
+      </c>
+      <c r="H4" s="22">
+        <v>50</v>
+      </c>
+      <c r="I4" s="22">
+        <v>40</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="M4" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="N4" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P4" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S4" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V4" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X4" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22">
+        <v>6</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S5" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U5" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V5" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W5" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X5" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>7</v>
+      </c>
+      <c r="B6" s="22">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W6" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X6" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>8</v>
+      </c>
+      <c r="B7" s="22">
+        <v>8</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W7" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X7" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>9</v>
+      </c>
+      <c r="B8" s="22">
+        <v>9</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X8" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>10</v>
+      </c>
+      <c r="B9" s="22">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V9" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W9" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X9" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>11</v>
+      </c>
+      <c r="B10" s="22">
+        <v>11</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S10" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V10" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W10" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X10" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>13</v>
+      </c>
+      <c r="B11" s="22">
+        <v>13</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="S11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="W11" s="22">
+        <v>3240</v>
+      </c>
+      <c r="X11" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="Y11" s="22">
         <v>76</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>-999</v>
-      </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23">
-        <v>3</v>
-      </c>
-      <c r="E3" s="23">
-        <v>4</v>
-      </c>
-      <c r="F3" s="23">
-        <v>5</v>
-      </c>
-      <c r="G3" s="23">
-        <v>6</v>
-      </c>
-      <c r="H3" s="23">
-        <v>7</v>
-      </c>
-      <c r="I3" s="23">
-        <v>8</v>
-      </c>
-      <c r="J3" s="23">
-        <v>9</v>
-      </c>
-      <c r="K3" s="23">
-        <v>10</v>
-      </c>
-      <c r="L3" s="23">
-        <v>11</v>
-      </c>
-      <c r="M3" s="23">
-        <v>12</v>
-      </c>
-      <c r="N3" s="23">
-        <v>13</v>
-      </c>
-      <c r="O3" s="23">
-        <v>14</v>
-      </c>
-      <c r="P3" s="23">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="23">
-        <v>16</v>
-      </c>
-      <c r="R3" s="23">
-        <v>17</v>
-      </c>
-      <c r="S3" s="23">
-        <v>18</v>
-      </c>
-      <c r="T3" s="23">
-        <v>19</v>
-      </c>
-      <c r="U3" s="23">
-        <v>20</v>
-      </c>
-      <c r="V3" s="23">
-        <v>21</v>
-      </c>
-      <c r="W3" s="23">
-        <v>22</v>
-      </c>
-      <c r="X3" s="23">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>99</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="L4" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="M4" s="23">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23">
-        <v>0</v>
-      </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>0</v>
-      </c>
-      <c r="R4" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="S4" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="T4" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U4" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="V4" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W4" s="23">
-        <v>25.33</v>
-      </c>
-      <c r="X4" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y4" s="23">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23">
-        <v>3</v>
-      </c>
-      <c r="C5" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D5" s="23">
-        <v>4</v>
-      </c>
-      <c r="E5" s="23">
-        <v>20</v>
-      </c>
-      <c r="F5" s="23">
-        <v>30</v>
-      </c>
-      <c r="G5" s="23">
-        <v>60</v>
-      </c>
-      <c r="H5" s="23">
-        <v>120</v>
-      </c>
-      <c r="I5" s="23">
-        <v>60</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="L5" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="M5" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="N5" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="P5" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="23">
-        <v>0.36</v>
-      </c>
-      <c r="S5" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="T5" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U5" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="V5" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W5" s="23">
-        <v>25.33</v>
-      </c>
-      <c r="X5" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y5" s="23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>2</v>
-      </c>
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="23">
-        <v>2003</v>
-      </c>
-      <c r="D6" s="23">
-        <v>10</v>
-      </c>
-      <c r="E6" s="23">
-        <v>20</v>
-      </c>
-      <c r="F6" s="23">
-        <v>150</v>
-      </c>
-      <c r="G6" s="23">
-        <v>65</v>
-      </c>
-      <c r="H6" s="23">
-        <v>65</v>
-      </c>
-      <c r="I6" s="23">
-        <v>25</v>
-      </c>
-      <c r="J6" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K6" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L6" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="M6" s="23">
-        <v>3.2</v>
-      </c>
-      <c r="N6" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O6" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P6" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R6" s="23">
-        <v>0.36</v>
-      </c>
-      <c r="S6" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V6" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W6" s="23">
-        <v>10</v>
-      </c>
-      <c r="X6" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y6" s="23">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>3</v>
-      </c>
-      <c r="B7" s="23">
-        <v>1</v>
-      </c>
-      <c r="C7" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D7" s="23">
-        <v>3</v>
-      </c>
-      <c r="E7" s="23">
-        <v>20</v>
-      </c>
-      <c r="F7" s="23">
-        <v>30</v>
-      </c>
-      <c r="G7" s="23">
-        <v>40</v>
-      </c>
-      <c r="H7" s="23">
-        <v>60</v>
-      </c>
-      <c r="I7" s="23">
-        <v>30</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K7" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="M7" s="23">
-        <v>3.2</v>
-      </c>
-      <c r="N7" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O7" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P7" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0.36</v>
-      </c>
-      <c r="S7" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="T7" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U7" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V7" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W7" s="23">
-        <v>10</v>
-      </c>
-      <c r="X7" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y7" s="23">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>4</v>
-      </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D8" s="23">
-        <v>4</v>
-      </c>
-      <c r="E8" s="23">
-        <v>20</v>
-      </c>
-      <c r="F8" s="23">
-        <v>30</v>
-      </c>
-      <c r="G8" s="23">
-        <v>40</v>
-      </c>
-      <c r="H8" s="23">
-        <v>60</v>
-      </c>
-      <c r="I8" s="23">
-        <v>30</v>
-      </c>
-      <c r="J8" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="L8" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="M8" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="N8" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O8" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="P8" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="R8" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="S8" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="T8" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U8" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V8" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W8" s="23">
-        <v>9.44</v>
-      </c>
-      <c r="X8" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y8" s="23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>5</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D9" s="23">
-        <v>4</v>
-      </c>
-      <c r="E9" s="23">
-        <v>20</v>
-      </c>
-      <c r="F9" s="23">
-        <v>30</v>
-      </c>
-      <c r="G9" s="23">
-        <v>40</v>
-      </c>
-      <c r="H9" s="23">
-        <v>60</v>
-      </c>
-      <c r="I9" s="23">
-        <v>30</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="L9" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="M9" s="23">
-        <v>3</v>
-      </c>
-      <c r="N9" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O9" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="P9" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="R9" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="S9" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="T9" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U9" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V9" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W9" s="23">
-        <v>9.44</v>
-      </c>
-      <c r="X9" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y9" s="23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>6</v>
-      </c>
-      <c r="B10" s="23">
-        <v>2</v>
-      </c>
-      <c r="C10" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23">
-        <v>45</v>
-      </c>
-      <c r="G10" s="23">
-        <v>45</v>
-      </c>
-      <c r="H10" s="23">
-        <v>225</v>
-      </c>
-      <c r="I10" s="23">
-        <v>50</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="L10" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="M10" s="23">
-        <v>2</v>
-      </c>
-      <c r="N10" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="P10" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R10" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="S10" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="T10" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U10" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V10" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W10" s="23">
-        <v>9.44</v>
-      </c>
-      <c r="X10" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y10" s="23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>13</v>
-      </c>
-      <c r="B11" s="23">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D11" s="23">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23">
-        <v>45</v>
-      </c>
-      <c r="G11" s="23">
-        <v>45</v>
-      </c>
-      <c r="H11" s="23">
-        <v>225</v>
-      </c>
-      <c r="I11" s="23">
-        <v>50</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0.65</v>
-      </c>
-      <c r="M11" s="23">
-        <v>1.86</v>
-      </c>
-      <c r="N11" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="O11" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="P11" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R11" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="T11" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U11" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="V11" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W11" s="23">
-        <v>5.85</v>
-      </c>
-      <c r="X11" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y11" s="23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D12" s="23">
-        <v>5</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23">
-        <v>20</v>
-      </c>
-      <c r="G12" s="23">
-        <v>35</v>
-      </c>
-      <c r="H12" s="23">
-        <v>70</v>
-      </c>
-      <c r="I12" s="23">
-        <v>45</v>
-      </c>
-      <c r="J12" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0.65</v>
-      </c>
-      <c r="M12" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="N12" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O12" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="P12" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="R12" s="23">
-        <v>0.36</v>
-      </c>
-      <c r="S12" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="T12" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U12" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V12" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W12" s="23">
-        <v>25.33</v>
-      </c>
-      <c r="X12" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y12" s="23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>8</v>
-      </c>
-      <c r="B13" s="23">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D13" s="23">
-        <v>4</v>
-      </c>
-      <c r="E13" s="23">
-        <v>20</v>
-      </c>
-      <c r="F13" s="23">
-        <v>45</v>
-      </c>
-      <c r="G13" s="23">
-        <v>30</v>
-      </c>
-      <c r="H13" s="23">
-        <v>70</v>
-      </c>
-      <c r="I13" s="23">
-        <v>20</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K13" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M13" s="23">
-        <v>4</v>
-      </c>
-      <c r="N13" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O13" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="P13" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="R13" s="23">
-        <v>0.38</v>
-      </c>
-      <c r="S13" s="23">
-        <v>0.24</v>
-      </c>
-      <c r="T13" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U13" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V13" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W13" s="23">
-        <v>25.33</v>
-      </c>
-      <c r="X13" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y13" s="23">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>9</v>
-      </c>
-      <c r="B14" s="23">
-        <v>1</v>
-      </c>
-      <c r="C14" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D14" s="23">
-        <v>4</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>50</v>
-      </c>
-      <c r="G14" s="23">
-        <v>40</v>
-      </c>
-      <c r="H14" s="23">
-        <v>50</v>
-      </c>
-      <c r="I14" s="23">
-        <v>40</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K14" s="23">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="N14" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O14" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="P14" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R14" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="S14" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="T14" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U14" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V14" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W14" s="23">
-        <v>9.44</v>
-      </c>
-      <c r="X14" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y14" s="23">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>10</v>
-      </c>
-      <c r="B15" s="23">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23">
-        <v>2003</v>
-      </c>
-      <c r="D15" s="23">
-        <v>10</v>
-      </c>
-      <c r="E15" s="23">
-        <v>20</v>
-      </c>
-      <c r="F15" s="23">
-        <v>150</v>
-      </c>
-      <c r="G15" s="23">
-        <v>65</v>
-      </c>
-      <c r="H15" s="23">
-        <v>65</v>
-      </c>
-      <c r="I15" s="23">
-        <v>25</v>
-      </c>
-      <c r="J15" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="K15" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L15" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="M15" s="23">
-        <v>3</v>
-      </c>
-      <c r="N15" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O15" s="23">
-        <v>1</v>
-      </c>
-      <c r="P15" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R15" s="23">
-        <v>0.36</v>
-      </c>
-      <c r="S15" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="T15" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U15" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="V15" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W15" s="23">
-        <v>10</v>
-      </c>
-      <c r="X15" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y15" s="23">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>11</v>
-      </c>
-      <c r="B16" s="23">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D16" s="23">
-        <v>8</v>
-      </c>
-      <c r="E16" s="23">
-        <v>20</v>
-      </c>
-      <c r="F16" s="23">
-        <v>15</v>
-      </c>
-      <c r="G16" s="23">
-        <v>25</v>
-      </c>
-      <c r="H16" s="23">
-        <v>60</v>
-      </c>
-      <c r="I16" s="23">
-        <v>15</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K16" s="23">
-        <v>1.05</v>
-      </c>
-      <c r="L16" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="M16" s="23">
-        <v>4</v>
-      </c>
-      <c r="N16" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O16" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="P16" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="R16" s="23">
-        <v>0.36</v>
-      </c>
-      <c r="S16" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="T16" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U16" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V16" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W16" s="23">
-        <v>30.1</v>
-      </c>
-      <c r="X16" s="23">
-        <v>25.55</v>
-      </c>
-      <c r="Y16" s="23">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>12</v>
-      </c>
-      <c r="B17" s="23">
-        <v>1</v>
-      </c>
-      <c r="C17" s="23">
-        <v>2004</v>
-      </c>
-      <c r="D17" s="23">
-        <v>5</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23">
-        <v>30</v>
-      </c>
-      <c r="G17" s="23">
-        <v>50</v>
-      </c>
-      <c r="H17" s="23">
-        <v>45</v>
-      </c>
-      <c r="I17" s="23">
-        <v>20</v>
-      </c>
-      <c r="J17" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="K17" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="L17" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="M17" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="N17" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="O17" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="P17" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="R17" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="S17" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="T17" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="U17" s="23">
-        <v>0.22</v>
-      </c>
-      <c r="V17" s="23">
-        <v>0.13</v>
-      </c>
-      <c r="W17" s="23">
-        <v>30.1</v>
-      </c>
-      <c r="X17" s="23">
-        <v>25.85</v>
-      </c>
-      <c r="Y17" s="23">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-    </row>
-    <row r="21" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="R21" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="T21" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="V21" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="W21" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="X21" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
-        <v>-999</v>
-      </c>
-      <c r="B23" s="26">
-        <v>1</v>
-      </c>
-      <c r="C23" s="26">
-        <v>2</v>
-      </c>
-      <c r="D23" s="26">
-        <v>3</v>
-      </c>
-      <c r="E23" s="26">
-        <v>4</v>
-      </c>
-      <c r="F23" s="26">
-        <v>5</v>
-      </c>
-      <c r="G23" s="26">
-        <v>6</v>
-      </c>
-      <c r="H23" s="26">
-        <v>7</v>
-      </c>
-      <c r="I23" s="26">
-        <v>8</v>
-      </c>
-      <c r="J23" s="26">
-        <v>9</v>
-      </c>
-      <c r="K23" s="26">
-        <v>10</v>
-      </c>
-      <c r="L23" s="26">
-        <v>11</v>
-      </c>
-      <c r="M23" s="26">
-        <v>12</v>
-      </c>
-      <c r="N23" s="26">
-        <v>13</v>
-      </c>
-      <c r="O23" s="26">
-        <v>14</v>
-      </c>
-      <c r="P23" s="26">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>16</v>
-      </c>
-      <c r="R23" s="26">
-        <v>17</v>
-      </c>
-      <c r="S23" s="26">
-        <v>18</v>
-      </c>
-      <c r="T23" s="26">
-        <v>19</v>
-      </c>
-      <c r="U23" s="26">
-        <v>20</v>
-      </c>
-      <c r="V23" s="26">
-        <v>21</v>
-      </c>
-      <c r="W23" s="26">
-        <v>22</v>
-      </c>
-      <c r="X23" s="26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>1</v>
-      </c>
-      <c r="B24" s="27">
-        <v>1</v>
-      </c>
-      <c r="C24" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>2</v>
-      </c>
-      <c r="B25" s="27">
-        <v>2</v>
-      </c>
-      <c r="C25" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>5</v>
-      </c>
-      <c r="B26" s="27">
-        <v>5</v>
-      </c>
-      <c r="C26" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>6</v>
-      </c>
-      <c r="B27" s="27">
-        <v>6</v>
-      </c>
-      <c r="C27" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <v>7</v>
-      </c>
-      <c r="B28" s="27">
-        <v>7</v>
-      </c>
-      <c r="C28" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <v>8</v>
-      </c>
-      <c r="B29" s="27">
-        <v>8</v>
-      </c>
-      <c r="C29" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <v>9</v>
-      </c>
-      <c r="B30" s="27">
-        <v>9</v>
-      </c>
-      <c r="C30" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <v>10</v>
-      </c>
-      <c r="B31" s="27">
-        <v>10</v>
-      </c>
-      <c r="C31" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
-        <v>11</v>
-      </c>
-      <c r="B32" s="27">
-        <v>11</v>
-      </c>
-      <c r="C32" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
-        <v>13</v>
-      </c>
-      <c r="B33" s="27">
-        <v>13</v>
-      </c>
-      <c r="C33" s="27">
-        <v>2016</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>103</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A20:D20"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>